--- a/database/industries/khodro/khodro/product/yearly_seprated.xlsx
+++ b/database/industries/khodro/khodro/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\khodro\khodro\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khodro\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6939CCF1-82C2-4929-B4A3-E51326BA586D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9339685-FF76-4C0A-B467-DFA4278C4D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -697,12 +697,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -712,7 +712,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,7 +724,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -736,7 +736,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -746,7 +746,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -758,7 +758,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -780,7 +780,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,7 +802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -812,7 +812,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -824,7 +824,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -848,7 +848,7 @@
         <v>17322</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -872,7 +872,7 @@
         <v>50065</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>17</v>
       </c>
@@ -920,7 +920,7 @@
         <v>28379</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
@@ -944,7 +944,7 @@
         <v>55753</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>19</v>
       </c>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
@@ -992,7 +992,7 @@
         <v>300041</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>21</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>23</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>25</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>27</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>451560</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>28</v>
       </c>
@@ -1170,7 +1170,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>11</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>14</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>18</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>20</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>21</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>22</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>23</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>24</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>29</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>30</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>31</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>3361</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>33</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>3703</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
         <v>34</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>35</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>36</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
         <v>38</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>39</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>455263</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1592,7 +1592,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1602,7 +1602,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1612,7 +1612,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
         <v>40</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1644,7 +1644,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>41</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>11</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>62233066</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>14</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>69947088</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>15</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>371565973</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>17</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>46153717</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>18</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>142975101</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>19</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>20</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>400524248</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>21</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>22</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>23</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>24</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>25</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>26</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
         <v>27</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>1093399193</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>43</v>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>11</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>14</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>17</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>18</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>20</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>21</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>22</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>23</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>24</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>29</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>30</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>493431</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>31</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>4678693</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="16" t="s">
         <v>33</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>5172124</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
         <v>44</v>
       </c>
@@ -2324,7 +2324,7 @@
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="16" t="s">
         <v>35</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
         <v>36</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="16" t="s">
         <v>38</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="14" t="s">
         <v>39</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>1098571317</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2426,7 +2426,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2436,7 +2436,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2446,7 +2446,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
         <v>45</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2478,7 +2478,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
         <v>46</v>
       </c>
@@ -2490,7 +2490,7 @@
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>11</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>3592718277</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>14</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>1397125497</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
         <v>15</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
         <v>17</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>1626333451</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>18</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>2564437806</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
         <v>19</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>20</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>1334898391</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
         <v>21</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>22</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
         <v>23</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>24</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
         <v>25</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
         <v>26</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
         <v>49</v>
       </c>
@@ -2814,7 +2814,7 @@
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
         <v>11</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
         <v>14</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>17</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
         <v>18</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
         <v>20</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
         <v>21</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
         <v>22</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="12" t="s">
         <v>23</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
         <v>24</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="12" t="s">
         <v>29</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
         <v>30</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>1442780702</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
         <v>31</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>1392053853</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3112,7 +3112,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3122,7 +3122,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -3132,7 +3132,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
         <v>51</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -3164,7 +3164,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
         <v>52</v>
       </c>
@@ -3176,7 +3176,7 @@
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
         <v>11</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>-58330066</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="12" t="s">
         <v>14</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>-87959506</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
         <v>15</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>-349647339</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
         <v>17</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>-46467793</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
         <v>18</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>-138043518</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" s="12" t="s">
         <v>19</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
         <v>20</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>-468934936</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" s="12" t="s">
         <v>21</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
         <v>22</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" s="12" t="s">
         <v>23</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
         <v>24</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" s="12" t="s">
         <v>25</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" s="10" t="s">
         <v>26</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" s="14" t="s">
         <v>53</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>-1149383158</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
         <v>54</v>
       </c>
@@ -3522,7 +3522,7 @@
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
         <v>11</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" s="12" t="s">
         <v>14</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
         <v>17</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" s="12" t="s">
         <v>18</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
         <v>20</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" s="12" t="s">
         <v>21</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
         <v>22</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="12" t="s">
         <v>23</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
         <v>24</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" s="12" t="s">
         <v>29</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
         <v>30</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>-608117</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" s="12" t="s">
         <v>31</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>-4678693</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" s="16" t="s">
         <v>55</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>-5286810</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" s="18" t="s">
         <v>56</v>
       </c>
@@ -3844,7 +3844,7 @@
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" s="16" t="s">
         <v>57</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" s="14" t="s">
         <v>36</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" s="16" t="s">
         <v>38</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" s="14" t="s">
         <v>39</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>-1154669968</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3946,7 +3946,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3956,7 +3956,7 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3966,7 +3966,7 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B157" s="7" t="s">
         <v>58</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -3998,7 +3998,7 @@
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
         <v>59</v>
       </c>
@@ -4010,7 +4010,7 @@
       <c r="H159" s="9"/>
       <c r="I159" s="9"/>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
         <v>11</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>3903000</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" s="12" t="s">
         <v>14</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>-18012418</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
         <v>15</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>21918634</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" s="12" t="s">
         <v>17</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>-314076</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" s="10" t="s">
         <v>18</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>4931583</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" s="12" t="s">
         <v>19</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
         <v>20</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>-68410688</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" s="12" t="s">
         <v>21</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
         <v>22</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" s="12" t="s">
         <v>23</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
         <v>24</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="12" t="s">
         <v>25</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="10" t="s">
         <v>26</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" s="14" t="s">
         <v>60</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>-55983965</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" s="8" t="s">
         <v>61</v>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="H174" s="9"/>
       <c r="I174" s="9"/>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B175" s="10" t="s">
         <v>11</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B176" s="12" t="s">
         <v>14</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" s="10" t="s">
         <v>17</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B178" s="12" t="s">
         <v>18</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B179" s="10" t="s">
         <v>20</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B180" s="12" t="s">
         <v>21</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B181" s="10" t="s">
         <v>22</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B182" s="12" t="s">
         <v>23</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B183" s="10" t="s">
         <v>24</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B184" s="12" t="s">
         <v>29</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B185" s="10" t="s">
         <v>30</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>-114686</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B186" s="12" t="s">
         <v>31</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B187" s="16" t="s">
         <v>62</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>-114686</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B188" s="18" t="s">
         <v>63</v>
       </c>
@@ -4678,7 +4678,7 @@
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B189" s="16" t="s">
         <v>64</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B190" s="14" t="s">
         <v>39</v>
       </c>

--- a/database/industries/khodro/khodro/product/yearly_seprated.xlsx
+++ b/database/industries/khodro/khodro/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khodro\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khodro\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9339685-FF76-4C0A-B467-DFA4278C4D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC3E896-84A8-44BA-90ED-32D7DF79D36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -697,12 +697,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -712,7 +712,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,7 +724,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -736,7 +736,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -746,7 +746,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -758,7 +758,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -780,7 +780,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,7 +802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -812,7 +812,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -824,7 +824,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -848,7 +848,7 @@
         <v>17322</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -872,7 +872,7 @@
         <v>50065</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>17</v>
       </c>
@@ -920,7 +920,7 @@
         <v>28379</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
@@ -944,7 +944,7 @@
         <v>55753</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>19</v>
       </c>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
@@ -992,7 +992,7 @@
         <v>300041</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>21</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>23</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>25</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>27</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>451560</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>28</v>
       </c>
@@ -1170,7 +1170,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>11</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>14</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>18</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>20</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>21</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>22</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>23</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>24</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>29</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>30</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>31</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>3361</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
         <v>33</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>3703</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
         <v>34</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>35</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>36</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="16" t="s">
         <v>38</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>39</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>455263</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1592,7 +1592,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1602,7 +1602,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1612,7 +1612,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>40</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1644,7 +1644,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>41</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>11</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>62233066</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>14</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>69947088</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>15</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>371565973</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>17</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>46153717</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>18</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>142975101</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>19</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>20</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>400524248</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>21</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>22</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>23</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>24</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>25</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>26</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>27</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>1093399193</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>43</v>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>11</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>14</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>17</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>18</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>20</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>21</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>22</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>23</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>24</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>29</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>30</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>493431</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>31</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>4678693</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="16" t="s">
         <v>33</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>5172124</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="18" t="s">
         <v>44</v>
       </c>
@@ -2324,7 +2324,7 @@
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="16" t="s">
         <v>35</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="14" t="s">
         <v>36</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="16" t="s">
         <v>38</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
         <v>39</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>1098571317</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2426,7 +2426,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2436,7 +2436,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2446,7 +2446,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B86" s="7" t="s">
         <v>45</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2478,7 +2478,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>46</v>
       </c>
@@ -2490,7 +2490,7 @@
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>11</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>3592718277</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>14</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>1397125497</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>15</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>17</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>1626333451</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>18</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>2564437806</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>19</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>20</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>1334898391</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>21</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>22</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>23</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>24</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>25</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>26</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>49</v>
       </c>
@@ -2814,7 +2814,7 @@
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>11</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>14</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>17</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>18</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>20</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>21</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>22</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="12" t="s">
         <v>23</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>24</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="12" t="s">
         <v>29</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>30</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>1442780702</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>31</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>1392053853</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3112,7 +3112,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3122,7 +3122,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -3132,7 +3132,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>51</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -3164,7 +3164,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>52</v>
       </c>
@@ -3176,7 +3176,7 @@
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>11</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>-58330066</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="12" t="s">
         <v>14</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>-87959506</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>15</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>-349647339</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="12" t="s">
         <v>17</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>-46467793</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>18</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>-138043518</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="12" t="s">
         <v>19</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>20</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>-468934936</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="12" t="s">
         <v>21</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>22</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="12" t="s">
         <v>23</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>24</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="12" t="s">
         <v>25</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="10" t="s">
         <v>26</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="14" t="s">
         <v>53</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>-1149383158</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>54</v>
       </c>
@@ -3522,7 +3522,7 @@
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>11</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="12" t="s">
         <v>14</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>17</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="12" t="s">
         <v>18</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>20</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="12" t="s">
         <v>21</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>22</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="12" t="s">
         <v>23</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>24</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="12" t="s">
         <v>29</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>30</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>-608117</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="12" t="s">
         <v>31</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>-4678693</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="16" t="s">
         <v>55</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>-5286810</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="18" t="s">
         <v>56</v>
       </c>
@@ -3844,7 +3844,7 @@
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="16" t="s">
         <v>57</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="14" t="s">
         <v>36</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="16" t="s">
         <v>38</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="14" t="s">
         <v>39</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>-1154669968</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3946,7 +3946,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3956,7 +3956,7 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3966,7 +3966,7 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B157" s="7" t="s">
         <v>58</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -3998,7 +3998,7 @@
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>59</v>
       </c>
@@ -4010,7 +4010,7 @@
       <c r="H159" s="9"/>
       <c r="I159" s="9"/>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>11</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>3903000</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="12" t="s">
         <v>14</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>-18012418</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>15</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>21918634</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="12" t="s">
         <v>17</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>-314076</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>18</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>4931583</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="12" t="s">
         <v>19</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>20</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>-68410688</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="12" t="s">
         <v>21</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>22</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="12" t="s">
         <v>23</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>24</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="12" t="s">
         <v>25</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>26</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="14" t="s">
         <v>60</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>-55983965</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="8" t="s">
         <v>61</v>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="H174" s="9"/>
       <c r="I174" s="9"/>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="10" t="s">
         <v>11</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="12" t="s">
         <v>14</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="10" t="s">
         <v>17</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="12" t="s">
         <v>18</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="10" t="s">
         <v>20</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="12" t="s">
         <v>21</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="10" t="s">
         <v>22</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="12" t="s">
         <v>23</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="10" t="s">
         <v>24</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="12" t="s">
         <v>29</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="10" t="s">
         <v>30</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>-114686</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="12" t="s">
         <v>31</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="16" t="s">
         <v>62</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>-114686</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="18" t="s">
         <v>63</v>
       </c>
@@ -4678,7 +4678,7 @@
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="16" t="s">
         <v>64</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B190" s="14" t="s">
         <v>39</v>
       </c>
